--- a/lista.xlsx
+++ b/lista.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\projetos\Chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\projetos\Chatbot\chatbot-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FECBB5-68D0-4D69-809C-7876F31078DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB09A2-95CF-426F-AB2F-7A2C084F6A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3C781B3-2ED9-4958-9A83-7DEF07296352}"/>
+    <workbookView xWindow="-21720" yWindow="-45" windowWidth="21840" windowHeight="13020" xr2:uid="{A3C781B3-2ED9-4958-9A83-7DEF07296352}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t xml:space="preserve">nome </t>
   </si>
@@ -47,35 +47,62 @@
     <t>telefone</t>
   </si>
   <si>
-    <t>55 48 9838-9781</t>
-  </si>
-  <si>
-    <t>lucas</t>
-  </si>
-  <si>
-    <t>neuro'up</t>
-  </si>
-  <si>
     <t>55 44 9101-8419</t>
   </si>
   <si>
-    <t>danielle</t>
-  </si>
-  <si>
     <t>grupar</t>
   </si>
   <si>
-    <t>dani</t>
-  </si>
-  <si>
-    <t>55 44 9924-2532</t>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Renan</t>
+  </si>
+  <si>
+    <t>Vitão</t>
+  </si>
+  <si>
+    <t>Vitoria</t>
+  </si>
+  <si>
+    <t>55 44 9101-2395</t>
+  </si>
+  <si>
+    <t>55 47 9789-8154</t>
+  </si>
+  <si>
+    <t>55 44 9137-6169</t>
+  </si>
+  <si>
+    <t>55 47 9146-8052</t>
+  </si>
+  <si>
+    <t>55 44 9871-6404</t>
+  </si>
+  <si>
+    <t>55 47 9259-6419</t>
+  </si>
+  <si>
+    <t>55 44 9141-6564</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +110,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,8 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373559E2-96F6-4076-9D7F-41DF06262D71}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,35 +490,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\projetos\Chatbot\chatbot-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB09A2-95CF-426F-AB2F-7A2C084F6A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF784E-9DF4-41C0-B94D-9D9948017598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-45" windowWidth="21840" windowHeight="13020" xr2:uid="{A3C781B3-2ED9-4958-9A83-7DEF07296352}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3C781B3-2ED9-4958-9A83-7DEF07296352}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t xml:space="preserve">nome </t>
   </si>
@@ -53,49 +53,88 @@
     <t>grupar</t>
   </si>
   <si>
-    <t>Mari</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>Dani</t>
-  </si>
-  <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
-    <t>Renan</t>
-  </si>
-  <si>
-    <t>Vitão</t>
-  </si>
-  <si>
-    <t>Vitoria</t>
-  </si>
-  <si>
-    <t>55 44 9101-2395</t>
-  </si>
-  <si>
-    <t>55 47 9789-8154</t>
-  </si>
-  <si>
-    <t>55 44 9137-6169</t>
-  </si>
-  <si>
-    <t>55 47 9146-8052</t>
-  </si>
-  <si>
     <t>55 44 9871-6404</t>
   </si>
   <si>
-    <t>55 47 9259-6419</t>
-  </si>
-  <si>
-    <t>55 44 9141-6564</t>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>BAS AGROFLORESTAL</t>
+  </si>
+  <si>
+    <t>MILOG</t>
+  </si>
+  <si>
+    <t>AVILA</t>
+  </si>
+  <si>
+    <t>BETTENCOURT</t>
+  </si>
+  <si>
+    <t>STARK METAIS</t>
+  </si>
+  <si>
+    <t>NARDOCI MOCCHI</t>
+  </si>
+  <si>
+    <t>NEDI</t>
+  </si>
+  <si>
+    <t>55 38 9981-8469</t>
+  </si>
+  <si>
+    <t>55 44 9928-1181</t>
+  </si>
+  <si>
+    <t>55 44 9865-9762</t>
+  </si>
+  <si>
+    <t>55 55 8142-0373</t>
+  </si>
+  <si>
+    <t>55 45 9965-7343</t>
+  </si>
+  <si>
+    <t>55 14 9678-0046</t>
+  </si>
+  <si>
+    <t>55 44 9901-3774</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55 44 9986-0190</t>
+  </si>
+  <si>
+    <t>55 53 8425-9087</t>
+  </si>
+  <si>
+    <t>Gisele</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Nelis</t>
+  </si>
+  <si>
+    <t>Adrina</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Vinicius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gabriel </t>
+  </si>
+  <si>
+    <t>dani</t>
   </si>
 </sst>
 </file>
@@ -146,9 +185,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373559E2-96F6-4076-9D7F-41DF06262D71}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +518,7 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,92 +529,126 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\projetos\Chatbot\chatbot-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF784E-9DF4-41C0-B94D-9D9948017598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71976B6-EC62-4D94-93DF-9E63E83185EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3C781B3-2ED9-4958-9A83-7DEF07296352}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">gabriel </t>
   </si>
   <si>
-    <t>dani</t>
+    <t>DANIELLE</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\projetos\Chatbot\chatbot-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71976B6-EC62-4D94-93DF-9E63E83185EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE931317-9C01-4D89-93C4-DEDF400AE7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3C781B3-2ED9-4958-9A83-7DEF07296352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t xml:space="preserve">nome </t>
   </si>
@@ -47,94 +47,220 @@
     <t>telefone</t>
   </si>
   <si>
-    <t>55 44 9101-8419</t>
-  </si>
-  <si>
-    <t>grupar</t>
-  </si>
-  <si>
-    <t>55 44 9871-6404</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>BAS AGROFLORESTAL</t>
-  </si>
-  <si>
-    <t>MILOG</t>
-  </si>
-  <si>
-    <t>AVILA</t>
-  </si>
-  <si>
-    <t>BETTENCOURT</t>
-  </si>
-  <si>
-    <t>STARK METAIS</t>
-  </si>
-  <si>
-    <t>NARDOCI MOCCHI</t>
-  </si>
-  <si>
-    <t>NEDI</t>
-  </si>
-  <si>
-    <t>55 38 9981-8469</t>
-  </si>
-  <si>
-    <t>55 44 9928-1181</t>
-  </si>
-  <si>
-    <t>55 44 9865-9762</t>
-  </si>
-  <si>
-    <t>55 55 8142-0373</t>
-  </si>
-  <si>
-    <t>55 45 9965-7343</t>
-  </si>
-  <si>
-    <t>55 14 9678-0046</t>
-  </si>
-  <si>
-    <t>55 44 9901-3774</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 55 44 9986-0190</t>
-  </si>
-  <si>
-    <t>55 53 8425-9087</t>
-  </si>
-  <si>
-    <t>Gisele</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Nelis</t>
-  </si>
-  <si>
-    <t>Adrina</t>
-  </si>
-  <si>
-    <t>Thiago</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Vinicius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gabriel </t>
-  </si>
-  <si>
-    <t>DANIELLE</t>
+    <t>CLAUDINEI</t>
+  </si>
+  <si>
+    <t>JOELSON</t>
+  </si>
+  <si>
+    <t>AMURI</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>HUMBERTO</t>
+  </si>
+  <si>
+    <t>BRUNA</t>
+  </si>
+  <si>
+    <t>GERMANIA</t>
+  </si>
+  <si>
+    <t>GERSON</t>
+  </si>
+  <si>
+    <t>FLAVIO</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>MARCIO</t>
+  </si>
+  <si>
+    <t>EVERTON</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>ADILSON</t>
+  </si>
+  <si>
+    <t>WELINGTON</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>VILSON</t>
+  </si>
+  <si>
+    <t>ELIANDRO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>ANSELMO</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>TRANSPORTES HAMMER</t>
+  </si>
+  <si>
+    <t>WEYTOR TRANSPORTES</t>
+  </si>
+  <si>
+    <t>IDISA</t>
+  </si>
+  <si>
+    <t>HEING</t>
+  </si>
+  <si>
+    <t>HJ LOGISTICA</t>
+  </si>
+  <si>
+    <t>JLP COMERCIO</t>
+  </si>
+  <si>
+    <t>GE TRANSPORTES</t>
+  </si>
+  <si>
+    <t>AUTO POSTO GIARETTA</t>
+  </si>
+  <si>
+    <t>VERONI</t>
+  </si>
+  <si>
+    <t>TRANSMANANCIAL</t>
+  </si>
+  <si>
+    <t>RODRIGO IGIDIO</t>
+  </si>
+  <si>
+    <t>R E R TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>AGRIMAIS</t>
+  </si>
+  <si>
+    <t>JESSICA NASCIMENTO</t>
+  </si>
+  <si>
+    <t>TRANSPORTES KRAUZE</t>
+  </si>
+  <si>
+    <t>SAKIYAMA TRANSPORTES</t>
+  </si>
+  <si>
+    <t>TRANSCAMION</t>
+  </si>
+  <si>
+    <t>MANO</t>
+  </si>
+  <si>
+    <t>4E TRANSPORTES</t>
+  </si>
+  <si>
+    <t>A D MONTEIRO</t>
+  </si>
+  <si>
+    <t>RAFAEL TRANSPORTES</t>
+  </si>
+  <si>
+    <t>RODOSONIC</t>
+  </si>
+  <si>
+    <t>TRS TRANSPORTES</t>
+  </si>
+  <si>
+    <t>55 17 9777-7913</t>
+  </si>
+  <si>
+    <t>55 27 9896-0784</t>
+  </si>
+  <si>
+    <t>55 49 8806-8684</t>
+  </si>
+  <si>
+    <t>55 45 9977-1148</t>
+  </si>
+  <si>
+    <t>55 47 9169-6749</t>
+  </si>
+  <si>
+    <t>55 34 9146-3924</t>
+  </si>
+  <si>
+    <t>55 54 9900-8084</t>
+  </si>
+  <si>
+    <t>55 88 9607-7574</t>
+  </si>
+  <si>
+    <t>55 49 9911-2525</t>
+  </si>
+  <si>
+    <t>55 34 8872-9223</t>
+  </si>
+  <si>
+    <t>55 31 9438-9655</t>
+  </si>
+  <si>
+    <t>55 14 9709-2857</t>
+  </si>
+  <si>
+    <t>55 49 8831-8776</t>
+  </si>
+  <si>
+    <t>55 47 9933-0059</t>
+  </si>
+  <si>
+    <t>55 48 9667-6298</t>
+  </si>
+  <si>
+    <t>55 44 9880-5200</t>
+  </si>
+  <si>
+    <t>55 12 7407-4446</t>
+  </si>
+  <si>
+    <t>55 47 9942-5837</t>
+  </si>
+  <si>
+    <t>55 49 9924-3634</t>
+  </si>
+  <si>
+    <t>55 51 9582-9168</t>
+  </si>
+  <si>
+    <t>55 45 9966-4730</t>
+  </si>
+  <si>
+    <t>55 66 9642-8006</t>
+  </si>
+  <si>
+    <t>55 44 9179-4100</t>
+  </si>
+  <si>
+    <t>55 14 9791-7815</t>
   </si>
 </sst>
 </file>
@@ -505,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373559E2-96F6-4076-9D7F-41DF06262D71}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,125 +656,312 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\projetos\Chatbot\chatbot-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE931317-9C01-4D89-93C4-DEDF400AE7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B935BBF7-2D1F-445B-B310-5729C3A0FE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3C781B3-2ED9-4958-9A83-7DEF07296352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve">nome </t>
   </si>
@@ -47,220 +47,19 @@
     <t>telefone</t>
   </si>
   <si>
-    <t>CLAUDINEI</t>
-  </si>
-  <si>
-    <t>JOELSON</t>
-  </si>
-  <si>
-    <t>AMURI</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>HUMBERTO</t>
-  </si>
-  <si>
-    <t>BRUNA</t>
-  </si>
-  <si>
-    <t>GERMANIA</t>
-  </si>
-  <si>
-    <t>GERSON</t>
-  </si>
-  <si>
-    <t>FLAVIO</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>MARCIO</t>
-  </si>
-  <si>
-    <t>EVERTON</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
-    <t>ADILSON</t>
-  </si>
-  <si>
-    <t>WELINGTON</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>VILSON</t>
-  </si>
-  <si>
-    <t>ELIANDRO</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>ANSELMO</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>TRANSPORTES HAMMER</t>
-  </si>
-  <si>
-    <t>WEYTOR TRANSPORTES</t>
-  </si>
-  <si>
-    <t>IDISA</t>
-  </si>
-  <si>
-    <t>HEING</t>
-  </si>
-  <si>
-    <t>HJ LOGISTICA</t>
-  </si>
-  <si>
-    <t>JLP COMERCIO</t>
-  </si>
-  <si>
-    <t>GE TRANSPORTES</t>
-  </si>
-  <si>
-    <t>AUTO POSTO GIARETTA</t>
-  </si>
-  <si>
-    <t>VERONI</t>
-  </si>
-  <si>
-    <t>TRANSMANANCIAL</t>
-  </si>
-  <si>
-    <t>RODRIGO IGIDIO</t>
-  </si>
-  <si>
-    <t>R E R TRANSPORTADORA</t>
-  </si>
-  <si>
-    <t>AGRIMAIS</t>
-  </si>
-  <si>
-    <t>JESSICA NASCIMENTO</t>
-  </si>
-  <si>
-    <t>TRANSPORTES KRAUZE</t>
-  </si>
-  <si>
-    <t>SAKIYAMA TRANSPORTES</t>
-  </si>
-  <si>
-    <t>TRANSCAMION</t>
-  </si>
-  <si>
-    <t>MANO</t>
-  </si>
-  <si>
-    <t>4E TRANSPORTES</t>
-  </si>
-  <si>
-    <t>A D MONTEIRO</t>
-  </si>
-  <si>
-    <t>RAFAEL TRANSPORTES</t>
-  </si>
-  <si>
-    <t>RODOSONIC</t>
-  </si>
-  <si>
-    <t>TRS TRANSPORTES</t>
-  </si>
-  <si>
-    <t>55 17 9777-7913</t>
-  </si>
-  <si>
-    <t>55 27 9896-0784</t>
-  </si>
-  <si>
-    <t>55 49 8806-8684</t>
-  </si>
-  <si>
-    <t>55 45 9977-1148</t>
-  </si>
-  <si>
-    <t>55 47 9169-6749</t>
-  </si>
-  <si>
-    <t>55 34 9146-3924</t>
-  </si>
-  <si>
-    <t>55 54 9900-8084</t>
-  </si>
-  <si>
-    <t>55 88 9607-7574</t>
-  </si>
-  <si>
-    <t>55 49 9911-2525</t>
-  </si>
-  <si>
-    <t>55 34 8872-9223</t>
-  </si>
-  <si>
-    <t>55 31 9438-9655</t>
-  </si>
-  <si>
-    <t>55 14 9709-2857</t>
-  </si>
-  <si>
-    <t>55 49 8831-8776</t>
-  </si>
-  <si>
-    <t>55 47 9933-0059</t>
-  </si>
-  <si>
-    <t>55 48 9667-6298</t>
-  </si>
-  <si>
-    <t>55 44 9880-5200</t>
-  </si>
-  <si>
-    <t>55 12 7407-4446</t>
-  </si>
-  <si>
-    <t>55 47 9942-5837</t>
-  </si>
-  <si>
-    <t>55 49 9924-3634</t>
-  </si>
-  <si>
-    <t>55 51 9582-9168</t>
-  </si>
-  <si>
-    <t>55 45 9966-4730</t>
-  </si>
-  <si>
-    <t>55 66 9642-8006</t>
-  </si>
-  <si>
-    <t>55 44 9179-4100</t>
-  </si>
-  <si>
-    <t>55 14 9791-7815</t>
+    <t>55 44 9871-6404</t>
+  </si>
+  <si>
+    <t>danielle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupar </t>
+  </si>
+  <si>
+    <t>(55) 44 9101-8419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gabriel gay </t>
   </si>
 </sst>
 </file>
@@ -634,7 +433,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,312 +456,156 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\projetos\Chatbot\chatbot-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B935BBF7-2D1F-445B-B310-5729C3A0FE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9556AF-6F76-41F4-89A1-45B890A6837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3C781B3-2ED9-4958-9A83-7DEF07296352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="275">
   <si>
     <t xml:space="preserve">nome </t>
   </si>
@@ -47,26 +47,827 @@
     <t>telefone</t>
   </si>
   <si>
-    <t>55 44 9871-6404</t>
-  </si>
-  <si>
-    <t>danielle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupar </t>
-  </si>
-  <si>
-    <t>(55) 44 9101-8419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gabriel gay </t>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>EDMILSON</t>
+  </si>
+  <si>
+    <t>CELSO</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>KININHO</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>LUIZ CARLOS</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>NEI</t>
+  </si>
+  <si>
+    <t>JUNIOR</t>
+  </si>
+  <si>
+    <t>KAUA</t>
+  </si>
+  <si>
+    <t>ALISSON</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>ETELVINO</t>
+  </si>
+  <si>
+    <t>EZEQUIEL</t>
+  </si>
+  <si>
+    <t>ZELMO</t>
+  </si>
+  <si>
+    <t>RHOMARS</t>
+  </si>
+  <si>
+    <t>JONAS</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>RUDY</t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>WANDERLEY</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>ELISEU</t>
+  </si>
+  <si>
+    <t>VAGNER</t>
+  </si>
+  <si>
+    <t>IVO</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>OSMAR</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>CLAITON</t>
+  </si>
+  <si>
+    <t>REGINALDO</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>GEOVANI</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>EUCLIDES</t>
+  </si>
+  <si>
+    <t>EDLSON</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>CLECIO</t>
+  </si>
+  <si>
+    <t>WELLINGTON</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>MAGNO</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>NAIARA</t>
+  </si>
+  <si>
+    <t>NETO</t>
+  </si>
+  <si>
+    <t>DIEVERSON</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>MZZUTTI</t>
+  </si>
+  <si>
+    <t>ALMIR</t>
+  </si>
+  <si>
+    <t>ALCIR</t>
+  </si>
+  <si>
+    <t>JACKSON</t>
+  </si>
+  <si>
+    <t>SILVINO</t>
+  </si>
+  <si>
+    <t>DOUGLAS</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>NELSON</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>RODNEY</t>
+  </si>
+  <si>
+    <t>KEKE</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>DAVI</t>
+  </si>
+  <si>
+    <t>EDERSON</t>
+  </si>
+  <si>
+    <t>KLEBER</t>
+  </si>
+  <si>
+    <t>ITAMAR</t>
+  </si>
+  <si>
+    <t>ESTEVO</t>
+  </si>
+  <si>
+    <t>OZI</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>GIRO</t>
+  </si>
+  <si>
+    <t>G DONDE</t>
+  </si>
+  <si>
+    <t>UNIAO</t>
+  </si>
+  <si>
+    <t>ADRIANA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ACCS</t>
+  </si>
+  <si>
+    <t>JAIR TRANSPORTES</t>
+  </si>
+  <si>
+    <t>EDILSON DA SILVA</t>
+  </si>
+  <si>
+    <t>ADELINO ALVES</t>
+  </si>
+  <si>
+    <t>F VARGAS</t>
+  </si>
+  <si>
+    <t>CLAUDINEI JOSE</t>
+  </si>
+  <si>
+    <t>TC TRANSPORTES</t>
+  </si>
+  <si>
+    <t>SPEED CARGO</t>
+  </si>
+  <si>
+    <t>AB TRANSPORTES</t>
+  </si>
+  <si>
+    <t>RENAN ANDRE TRANSPORTES</t>
+  </si>
+  <si>
+    <t>JANDT TRANSPORTES</t>
+  </si>
+  <si>
+    <t>VENTANIA</t>
+  </si>
+  <si>
+    <t>GUANABARA</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORA KM</t>
+  </si>
+  <si>
+    <t>OS PIA MIRO</t>
+  </si>
+  <si>
+    <t>J A DE ALMEIRA</t>
+  </si>
+  <si>
+    <t>TRANSPORTES MORADA DO SOL</t>
+  </si>
+  <si>
+    <t>J SALVADOR</t>
+  </si>
+  <si>
+    <t>SÃO ROQUE</t>
+  </si>
+  <si>
+    <t>CARLOS ROBERTO</t>
+  </si>
+  <si>
+    <t>LEKAO TRANSPORTES</t>
+  </si>
+  <si>
+    <t>GLOBAL COMERCIO</t>
+  </si>
+  <si>
+    <t>TRANSPORTES HGS</t>
+  </si>
+  <si>
+    <t>HUGO LEONARDO</t>
+  </si>
+  <si>
+    <t>MARTINAZZO</t>
+  </si>
+  <si>
+    <t>ROCHA CALHEIROS</t>
+  </si>
+  <si>
+    <t>KABEM TRANSPORTES</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>TERRUGGE</t>
+  </si>
+  <si>
+    <t>RODOTIBAGI</t>
+  </si>
+  <si>
+    <t>BRAUSA</t>
+  </si>
+  <si>
+    <t>SOARES</t>
+  </si>
+  <si>
+    <t>BRILHANETE</t>
+  </si>
+  <si>
+    <t>PRS TRANSPORTE</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORA MADUREIRA</t>
+  </si>
+  <si>
+    <t>RESCHINI</t>
+  </si>
+  <si>
+    <t>FLM TRANSPORTES</t>
+  </si>
+  <si>
+    <t>D.L CARGAS</t>
+  </si>
+  <si>
+    <t>SILVEIRA E SOARES</t>
+  </si>
+  <si>
+    <t>TRANS QUERO</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORA PONTES</t>
+  </si>
+  <si>
+    <t>EDILSON MINEIRO</t>
+  </si>
+  <si>
+    <t>JOAO BATISTA</t>
+  </si>
+  <si>
+    <t>ANDRADE E FRASCARELLI</t>
+  </si>
+  <si>
+    <t>DARCI ANTONIO</t>
+  </si>
+  <si>
+    <t>BRUMATTI FRIGORIFICO</t>
+  </si>
+  <si>
+    <t>MADEIRAS DIMADE</t>
+  </si>
+  <si>
+    <t>MARCOS ANTONIO</t>
+  </si>
+  <si>
+    <t>GTERRA</t>
+  </si>
+  <si>
+    <t>JOSE BARIZON</t>
+  </si>
+  <si>
+    <t>MAGNO TAVARES</t>
+  </si>
+  <si>
+    <t>TRANSVITORIA</t>
+  </si>
+  <si>
+    <t>POSTO ADS</t>
+  </si>
+  <si>
+    <t>NICOLOSO</t>
+  </si>
+  <si>
+    <t>TN TRANSPORTES</t>
+  </si>
+  <si>
+    <t>PEREIRA E ANDRADE</t>
+  </si>
+  <si>
+    <t>NETO NOBREGA</t>
+  </si>
+  <si>
+    <t>DOM BASTO</t>
+  </si>
+  <si>
+    <t>CALINHO TRANSPORTES</t>
+  </si>
+  <si>
+    <t>TRANSPORTES HORIZONTE</t>
+  </si>
+  <si>
+    <t>MONTE EVEREST</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORA UNIAO</t>
+  </si>
+  <si>
+    <t>GRAOS TRANSPORTES</t>
+  </si>
+  <si>
+    <t>ACIR DEL TRANSPORTES</t>
+  </si>
+  <si>
+    <t>TRANSILVA</t>
+  </si>
+  <si>
+    <t>S H TRANSPORTES</t>
+  </si>
+  <si>
+    <t>ROLOFF</t>
+  </si>
+  <si>
+    <t>M P RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORTES J J </t>
+  </si>
+  <si>
+    <t>TRANSPORTES CEZAROTTO</t>
+  </si>
+  <si>
+    <t>EW TRANSPORETES</t>
+  </si>
+  <si>
+    <t>AREIA VOLTA DA PRAIA</t>
+  </si>
+  <si>
+    <t>EDUARDO JOSE</t>
+  </si>
+  <si>
+    <t>BIG TRANSPORTES</t>
+  </si>
+  <si>
+    <t>LEANDRO DE CASTRO</t>
+  </si>
+  <si>
+    <t>NELSON TRISCH</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>OSMAR GRIPAR</t>
+  </si>
+  <si>
+    <t>DM DOMICIANO</t>
+  </si>
+  <si>
+    <t>MANDUCA</t>
+  </si>
+  <si>
+    <t>IVONEI</t>
+  </si>
+  <si>
+    <t>MAYARA SCHWARTZ</t>
+  </si>
+  <si>
+    <t>S.O.S ESTEIO</t>
+  </si>
+  <si>
+    <t>RLJ TRANSPORTES</t>
+  </si>
+  <si>
+    <t>DANI OSSEMER</t>
+  </si>
+  <si>
+    <t>TOP FLORIPA</t>
+  </si>
+  <si>
+    <t>TRANSDOLLY</t>
+  </si>
+  <si>
+    <t>TRANSCAMILA</t>
+  </si>
+  <si>
+    <t>VEITONI TEXEIRA</t>
+  </si>
+  <si>
+    <t>GRANSAL</t>
+  </si>
+  <si>
+    <t>ESTEVO LUIZ</t>
+  </si>
+  <si>
+    <t>TRANSPOP</t>
+  </si>
+  <si>
+    <t>ALMIR DA SILVA</t>
+  </si>
+  <si>
+    <t>EASY AGRO</t>
+  </si>
+  <si>
+    <t>55449824-8777</t>
+  </si>
+  <si>
+    <t>55449945-7475</t>
+  </si>
+  <si>
+    <t>55929196-9396</t>
+  </si>
+  <si>
+    <t>55963842-4252</t>
+  </si>
+  <si>
+    <t>55499961-6728</t>
+  </si>
+  <si>
+    <t>55429944-2431</t>
+  </si>
+  <si>
+    <t>55189970-1617</t>
+  </si>
+  <si>
+    <t>55659814-5056</t>
+  </si>
+  <si>
+    <t>55429914-0446</t>
+  </si>
+  <si>
+    <t>55149961-7021</t>
+  </si>
+  <si>
+    <t>55499883-4271</t>
+  </si>
+  <si>
+    <t>55479917-7651</t>
+  </si>
+  <si>
+    <t>55449911-9404</t>
+  </si>
+  <si>
+    <t>55449910-0387</t>
+  </si>
+  <si>
+    <t>55479960-3625</t>
+  </si>
+  <si>
+    <t>55499881-0392</t>
+  </si>
+  <si>
+    <t>55449917-0480</t>
+  </si>
+  <si>
+    <t>55449989-3545</t>
+  </si>
+  <si>
+    <t>55961289-8996</t>
+  </si>
+  <si>
+    <t>55549995-9963</t>
+  </si>
+  <si>
+    <t>55549997-7196</t>
+  </si>
+  <si>
+    <t>55549967-0151</t>
+  </si>
+  <si>
+    <t>55549970-2708</t>
+  </si>
+  <si>
+    <t>55359995-6525</t>
+  </si>
+  <si>
+    <t>55149972-4897</t>
+  </si>
+  <si>
+    <t>55449977-5670</t>
+  </si>
+  <si>
+    <t>55549977-2337</t>
+  </si>
+  <si>
+    <t>55429928-3471</t>
+  </si>
+  <si>
+    <t>55449972-2060</t>
+  </si>
+  <si>
+    <t>55499917-1113</t>
+  </si>
+  <si>
+    <t>55679992-1757</t>
+  </si>
+  <si>
+    <t>55169977-0615</t>
+  </si>
+  <si>
+    <t>55429883-4860</t>
+  </si>
+  <si>
+    <t>55349981-8162</t>
+  </si>
+  <si>
+    <t>55449986-5155</t>
+  </si>
+  <si>
+    <t>55459992-0329</t>
+  </si>
+  <si>
+    <t>55119946-8919</t>
+  </si>
+  <si>
+    <t>55199920-6646</t>
+  </si>
+  <si>
+    <t>55419962-4066</t>
+  </si>
+  <si>
+    <t>55459913-3958</t>
+  </si>
+  <si>
+    <t>55459917-1420</t>
+  </si>
+  <si>
+    <t>55479887-2755</t>
+  </si>
+  <si>
+    <t>55439997-2991</t>
+  </si>
+  <si>
+    <t>55429983-5250</t>
+  </si>
+  <si>
+    <t>55179811-3085</t>
+  </si>
+  <si>
+    <t>55449994-9827</t>
+  </si>
+  <si>
+    <t>55916329-3271</t>
+  </si>
+  <si>
+    <t>55149972-1755</t>
+  </si>
+  <si>
+    <t>55479880-8870</t>
+  </si>
+  <si>
+    <t>55449918-3993</t>
+  </si>
+  <si>
+    <t>55519840-6478</t>
+  </si>
+  <si>
+    <t>55499917-2125</t>
+  </si>
+  <si>
+    <t>55119842-7667</t>
+  </si>
+  <si>
+    <t>55459992-1649</t>
+  </si>
+  <si>
+    <t>55479880-4364</t>
+  </si>
+  <si>
+    <t>55539997-2100</t>
+  </si>
+  <si>
+    <t>55119760-4011</t>
+  </si>
+  <si>
+    <t>55359927-1712</t>
+  </si>
+  <si>
+    <t>55119555-8725</t>
+  </si>
+  <si>
+    <t>55499911-2008</t>
+  </si>
+  <si>
+    <t>55479962-1161</t>
+  </si>
+  <si>
+    <t>55469917-6290</t>
+  </si>
+  <si>
+    <t>55449976-0900</t>
+  </si>
+  <si>
+    <t>55499992-1600</t>
+  </si>
+  <si>
+    <t>55319823-2527</t>
+  </si>
+  <si>
+    <t>55449917-6159</t>
+  </si>
+  <si>
+    <t>55489964-7445</t>
+  </si>
+  <si>
+    <t>55439914-9009</t>
+  </si>
+  <si>
+    <t>55499980-2356</t>
+  </si>
+  <si>
+    <t>55189961-5296</t>
+  </si>
+  <si>
+    <t>55549991-2373</t>
+  </si>
+  <si>
+    <t>55549970-0448</t>
+  </si>
+  <si>
+    <t>55319996-3692</t>
+  </si>
+  <si>
+    <t>55349967-2937</t>
+  </si>
+  <si>
+    <t>55449917-8620</t>
+  </si>
+  <si>
+    <t>55359913-7449</t>
+  </si>
+  <si>
+    <t>55519819-9478</t>
+  </si>
+  <si>
+    <t>55349983-5269</t>
+  </si>
+  <si>
+    <t>55319912-5858</t>
+  </si>
+  <si>
+    <t>55489992-0244</t>
+  </si>
+  <si>
+    <t>55339997-8174</t>
+  </si>
+  <si>
+    <t>55150301-2935</t>
+  </si>
+  <si>
+    <t>55429995-1432</t>
+  </si>
+  <si>
+    <t>55449982-7514</t>
+  </si>
+  <si>
+    <t>55549963-5143</t>
+  </si>
+  <si>
+    <t>55479919-2941</t>
+  </si>
+  <si>
+    <t>55479913-2142</t>
+  </si>
+  <si>
+    <t>55189912-9435</t>
+  </si>
+  <si>
+    <t>55459992-9271</t>
+  </si>
+  <si>
+    <t>55439882-6422</t>
+  </si>
+  <si>
+    <t>55199979-5100</t>
+  </si>
+  <si>
+    <t>55279965-0598</t>
+  </si>
+  <si>
+    <t>55449983-8088</t>
+  </si>
+  <si>
+    <t>51981188-1255</t>
+  </si>
+  <si>
+    <t>55469917-4982</t>
+  </si>
+  <si>
+    <t>55439913-6385</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +878,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -116,6 +925,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373559E2-96F6-4076-9D7F-41DF06262D71}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,158 +1269,1119 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\projetos\Chatbot\chatbot-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9556AF-6F76-41F4-89A1-45B890A6837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6C44C-81C0-443C-8D74-118E830F5A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3C781B3-2ED9-4958-9A83-7DEF07296352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="191">
   <si>
     <t xml:space="preserve">nome </t>
   </si>
@@ -59,84 +59,15 @@
     <t>RAFAEL</t>
   </si>
   <si>
-    <t>EDMILSON</t>
-  </si>
-  <si>
-    <t>CELSO</t>
-  </si>
-  <si>
-    <t>ALEX</t>
-  </si>
-  <si>
-    <t>KININHO</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
     <t>EDUARDO</t>
   </si>
   <si>
-    <t>LUIZ CARLOS</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>NEI</t>
-  </si>
-  <si>
-    <t>JUNIOR</t>
-  </si>
-  <si>
-    <t>KAUA</t>
-  </si>
-  <si>
-    <t>ALISSON</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>ETELVINO</t>
-  </si>
-  <si>
-    <t>EZEQUIEL</t>
-  </si>
-  <si>
-    <t>ZELMO</t>
-  </si>
-  <si>
-    <t>RHOMARS</t>
-  </si>
-  <si>
-    <t>JONAS</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
     <t>CARLOS</t>
   </si>
   <si>
-    <t>RUDY</t>
-  </si>
-  <si>
-    <t>HUGO</t>
-  </si>
-  <si>
-    <t>WANDERLEY</t>
-  </si>
-  <si>
     <t>BRUNO</t>
   </si>
   <si>
-    <t>ELISEU</t>
-  </si>
-  <si>
     <t>VAGNER</t>
   </si>
   <si>
@@ -281,99 +212,6 @@
     <t>JOSE ANTONIO</t>
   </si>
   <si>
-    <t>GIRO</t>
-  </si>
-  <si>
-    <t>G DONDE</t>
-  </si>
-  <si>
-    <t>UNIAO</t>
-  </si>
-  <si>
-    <t>ADRIANA OLIVEIRA</t>
-  </si>
-  <si>
-    <t>ACCS</t>
-  </si>
-  <si>
-    <t>JAIR TRANSPORTES</t>
-  </si>
-  <si>
-    <t>EDILSON DA SILVA</t>
-  </si>
-  <si>
-    <t>ADELINO ALVES</t>
-  </si>
-  <si>
-    <t>F VARGAS</t>
-  </si>
-  <si>
-    <t>CLAUDINEI JOSE</t>
-  </si>
-  <si>
-    <t>TC TRANSPORTES</t>
-  </si>
-  <si>
-    <t>SPEED CARGO</t>
-  </si>
-  <si>
-    <t>AB TRANSPORTES</t>
-  </si>
-  <si>
-    <t>RENAN ANDRE TRANSPORTES</t>
-  </si>
-  <si>
-    <t>JANDT TRANSPORTES</t>
-  </si>
-  <si>
-    <t>VENTANIA</t>
-  </si>
-  <si>
-    <t>GUANABARA</t>
-  </si>
-  <si>
-    <t>TRANSPORTADORA KM</t>
-  </si>
-  <si>
-    <t>OS PIA MIRO</t>
-  </si>
-  <si>
-    <t>J A DE ALMEIRA</t>
-  </si>
-  <si>
-    <t>TRANSPORTES MORADA DO SOL</t>
-  </si>
-  <si>
-    <t>J SALVADOR</t>
-  </si>
-  <si>
-    <t>SÃO ROQUE</t>
-  </si>
-  <si>
-    <t>CARLOS ROBERTO</t>
-  </si>
-  <si>
-    <t>LEKAO TRANSPORTES</t>
-  </si>
-  <si>
-    <t>GLOBAL COMERCIO</t>
-  </si>
-  <si>
-    <t>TRANSPORTES HGS</t>
-  </si>
-  <si>
-    <t>HUGO LEONARDO</t>
-  </si>
-  <si>
-    <t>MARTINAZZO</t>
-  </si>
-  <si>
-    <t>ROCHA CALHEIROS</t>
-  </si>
-  <si>
-    <t>KABEM TRANSPORTES</t>
-  </si>
-  <si>
     <t>SANTA BARBARA</t>
   </si>
   <si>
@@ -573,96 +411,6 @@
   </si>
   <si>
     <t>EASY AGRO</t>
-  </si>
-  <si>
-    <t>55449824-8777</t>
-  </si>
-  <si>
-    <t>55449945-7475</t>
-  </si>
-  <si>
-    <t>55929196-9396</t>
-  </si>
-  <si>
-    <t>55963842-4252</t>
-  </si>
-  <si>
-    <t>55499961-6728</t>
-  </si>
-  <si>
-    <t>55429944-2431</t>
-  </si>
-  <si>
-    <t>55189970-1617</t>
-  </si>
-  <si>
-    <t>55659814-5056</t>
-  </si>
-  <si>
-    <t>55429914-0446</t>
-  </si>
-  <si>
-    <t>55149961-7021</t>
-  </si>
-  <si>
-    <t>55499883-4271</t>
-  </si>
-  <si>
-    <t>55479917-7651</t>
-  </si>
-  <si>
-    <t>55449911-9404</t>
-  </si>
-  <si>
-    <t>55449910-0387</t>
-  </si>
-  <si>
-    <t>55479960-3625</t>
-  </si>
-  <si>
-    <t>55499881-0392</t>
-  </si>
-  <si>
-    <t>55449917-0480</t>
-  </si>
-  <si>
-    <t>55449989-3545</t>
-  </si>
-  <si>
-    <t>55961289-8996</t>
-  </si>
-  <si>
-    <t>55549995-9963</t>
-  </si>
-  <si>
-    <t>55549997-7196</t>
-  </si>
-  <si>
-    <t>55549967-0151</t>
-  </si>
-  <si>
-    <t>55549970-2708</t>
-  </si>
-  <si>
-    <t>55359995-6525</t>
-  </si>
-  <si>
-    <t>55149972-4897</t>
-  </si>
-  <si>
-    <t>55449977-5670</t>
-  </si>
-  <si>
-    <t>55549977-2337</t>
-  </si>
-  <si>
-    <t>55429928-3471</t>
-  </si>
-  <si>
-    <t>55449972-2060</t>
-  </si>
-  <si>
-    <t>55499917-1113</t>
   </si>
   <si>
     <t>55679992-1757</t>
@@ -917,15 +665,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1243,17 +988,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373559E2-96F6-4076-9D7F-41DF06262D71}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1269,532 +1014,532 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>184</v>
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>186</v>
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>187</v>
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>188</v>
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>189</v>
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>190</v>
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>191</v>
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>192</v>
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>193</v>
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>194</v>
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>195</v>
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>191</v>
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>196</v>
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>197</v>
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>199</v>
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>200</v>
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>201</v>
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>202</v>
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>203</v>
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>204</v>
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1802,582 +1547,219 @@
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C82" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C87" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C88" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C91" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C92" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C94" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C95" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C96" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C97" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C98" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
